--- a/resources/BuffyCards.xlsx
+++ b/resources/BuffyCards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Buffy\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B857AE27-64C8-4C66-9F1D-69EA89AF4CC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29718839-F873-4B5A-B58A-D7E8B5880183}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13824" yWindow="1092" windowWidth="15756" windowHeight="13296" xr2:uid="{5CD95265-D2D3-4611-A6D6-17DD27521059}"/>
+    <workbookView xWindow="16380" yWindow="372" windowWidth="14244" windowHeight="13092" xr2:uid="{5CD95265-D2D3-4611-A6D6-17DD27521059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="456">
   <si>
     <t>Dingoes Ate My Baby</t>
   </si>
@@ -4016,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A189F-8FA7-44D2-B95E-4C7C85A67E66}">
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>401</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>410</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>412</v>
